--- a/biology/Botanique/Céleri_à_couper/Céleri_à_couper.xlsx
+++ b/biology/Botanique/Céleri_à_couper/Céleri_à_couper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9leri_%C3%A0_couper</t>
+          <t>Céleri_à_couper</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céleri à couper, Apium graveolens var. secalinum est une variété de céleri cultivée. Les tiges sont courbées et plus fines que celles du céleri commun. Les feuilles sont tout autant utilisées que les tiges.
 </t>
